--- a/Exoplanets/GJ9827d/impact parameter/Parâmetros_Niraula_TL+.xlsx
+++ b/Exoplanets/GJ9827d/impact parameter/Parâmetros_Niraula_TL+.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\impact parameter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\Exoplanets\GJ9827d\impact parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF55DE-CFEA-4525-BB41-DFBFBE01A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C4AD21-4103-4661-92B6-371E641D754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="4080" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -762,32 +773,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -861,7 +872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -899,13 +910,13 @@
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>6.5000000000000002E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="O2" s="20">
         <v>0.65900000000000003</v>
       </c>
       <c r="P2" s="20">
-        <v>0.187</v>
+        <v>0.188</v>
       </c>
       <c r="Q2" s="20">
         <v>1.11E-2</v>
@@ -914,7 +925,7 @@
         <v>6.2014100000000001</v>
       </c>
       <c r="S2" s="24">
-        <v>87.16</v>
+        <v>87.19</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -935,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -958,7 +969,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -981,7 +992,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1004,7 +1015,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1027,7 +1038,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1050,7 +1061,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1073,7 +1084,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1096,7 +1107,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1119,7 +1130,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1142,7 +1153,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1154,107 +1165,107 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
